--- a/data/MATERNITY_DATA.xlsx
+++ b/data/MATERNITY_DATA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RossTyzackPitman/Documents/OneDrive/PhD/Data/R_Database/R_PROJECTS/PhD_Chapter3/MSE_Paper/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RossTyzackPitman/Documents/OneDrive/PhD/Data/R_Database/R_PROJECTS/PhD_Chapter3/MSE_Paper/LEOPARD-MP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="787" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="787" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LITTERS" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,12 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -835,7 +838,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -994,7 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4815,7 +4818,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -4905,7 +4908,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A14:A53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -5123,7 +5126,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -26103,13 +26106,13 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="15.33203125" bestFit="1" customWidth="1"/>

--- a/data/MATERNITY_DATA.xlsx
+++ b/data/MATERNITY_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="787" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="787" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LITTERS" sheetId="1" r:id="rId1"/>
@@ -5533,7 +5533,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5625,7 +5625,7 @@
         <v>38</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f t="shared" ref="K2:K65" si="1">IF(J2&lt;=12,"CUB",IF(J2&lt;=24,"JUVENILE",IF(J2&lt;=36,"SUBADULT",IF(J2&lt;=48,"ADULT_36_48",IF(J2&lt;=60,"ADULT_48_60",IF(J2&lt;=72,"ADULT_60_72",IF(J2&lt;=84,"ADULT_72_84",IF(J2&gt;84,"ADULT_84","NA"))))))))</f>
+        <f>IF(J2&lt;=12,"CUB",IF(J2&lt;=24,"JUVENILE",IF(J2&lt;=36,"SUBADULT",IF(J2&lt;=48,"ADULT_36_48",IF(J2&lt;=60,"ADULT_48_60",IF(J2&lt;=72,"ADULT_60_72",IF(J2&lt;=84,"ADULT_72_84",IF(J2&gt;84,"ADULT_84","NA"))))))))</f>
         <v>ADULT_36_48</v>
       </c>
       <c r="L2" s="10">
@@ -5665,7 +5665,7 @@
         <v>62</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K2:K65" si="1">IF(J3&lt;=12,"CUB",IF(J3&lt;=24,"JUVENILE",IF(J3&lt;=36,"SUBADULT",IF(J3&lt;=48,"ADULT_36_48",IF(J3&lt;=60,"ADULT_48_60",IF(J3&lt;=72,"ADULT_60_72",IF(J3&lt;=84,"ADULT_72_84",IF(J3&gt;84,"ADULT_84","NA"))))))))</f>
         <v>ADULT_60_72</v>
       </c>
       <c r="L3" s="10">
@@ -26106,7 +26106,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26170,14 +26170,14 @@
         <v>1.8571428571428572</v>
       </c>
       <c r="G4" s="15">
-        <v>0.36313651960128157</v>
+        <v>0.36313651960128202</v>
       </c>
       <c r="H4" s="15">
         <v>20</v>
       </c>
       <c r="I4" s="27">
         <f>G4/SQRT(H4)</f>
-        <v>8.1199794294115044E-2</v>
+        <v>8.1199794294115141E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
